--- a/results/mp/logistic/corona/confidence/168/desired-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/desired-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="87">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,37 +52,37 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>kill</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>forced</t>
+    <t>collapse</t>
   </si>
   <si>
     <t>hell</t>
   </si>
   <si>
-    <t>collapse</t>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>died</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>panic</t>
+    <t>emergency</t>
   </si>
   <si>
     <t>drop</t>
@@ -91,136 +91,145 @@
     <t>low</t>
   </si>
   <si>
-    <t>emergency</t>
+    <t>avoid</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>strong</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
+    <t>save</t>
+  </si>
+  <si>
     <t>create</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>save</t>
+    <t>boost</t>
   </si>
   <si>
     <t>ready</t>
   </si>
   <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>giving</t>
   </si>
   <si>
     <t>hope</t>
@@ -229,46 +238,43 @@
     <t>share</t>
   </si>
   <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>kind</t>
+    <t>huge</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>safety</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>boost</t>
+    <t>security</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>security</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>credit</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
+    <t>helping</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>helping</t>
+    <t>you</t>
   </si>
 </sst>
 </file>
@@ -626,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q59"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -634,10 +640,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -695,13 +701,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8947368421052632</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -713,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -766,16 +772,16 @@
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K4">
-        <v>0.9666666666666667</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -787,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -816,16 +822,16 @@
         <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K5">
-        <v>0.9444444444444444</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -837,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -845,13 +851,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8424657534246576</v>
+        <v>0.8493150684931506</v>
       </c>
       <c r="C6">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D6">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -863,19 +869,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K6">
         <v>0.9444444444444444</v>
       </c>
       <c r="L6">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -887,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -895,13 +901,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8421052631578947</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -913,10 +919,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K7">
         <v>0.9375</v>
@@ -945,13 +951,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8108108108108109</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -966,7 +972,7 @@
         <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K8">
         <v>0.9333333333333333</v>
@@ -995,13 +1001,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7777777777777778</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1013,10 +1019,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K9">
         <v>0.9322033898305084</v>
@@ -1045,13 +1051,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7586206896551724</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1063,19 +1069,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K10">
-        <v>0.9302325581395349</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L10">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="M10">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1087,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1095,13 +1101,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7391304347826086</v>
+        <v>0.7</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1113,19 +1119,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K11">
-        <v>0.9230769230769231</v>
+        <v>0.9138381201044387</v>
       </c>
       <c r="L11">
-        <v>24</v>
+        <v>350</v>
       </c>
       <c r="M11">
-        <v>24</v>
+        <v>350</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1137,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1145,13 +1151,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7333333333333333</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1163,19 +1169,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K12">
-        <v>0.9190600522193212</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="L12">
-        <v>352</v>
+        <v>39</v>
       </c>
       <c r="M12">
-        <v>352</v>
+        <v>39</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1187,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1195,13 +1201,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7307692307692307</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1213,19 +1219,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K13">
-        <v>0.9090909090909091</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="L13">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="M13">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1237,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1245,13 +1251,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5661375661375662</v>
+        <v>0.5445736434108527</v>
       </c>
       <c r="C14">
-        <v>107</v>
+        <v>281</v>
       </c>
       <c r="D14">
-        <v>107</v>
+        <v>281</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1263,19 +1269,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>82</v>
+        <v>235</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K14">
-        <v>0.8947368421052632</v>
+        <v>0.8962264150943396</v>
       </c>
       <c r="L14">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="M14">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1287,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1295,13 +1301,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4838709677419355</v>
+        <v>0.5</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1313,19 +1319,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K15">
-        <v>0.8943661971830986</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L15">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="M15">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1337,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1345,13 +1351,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4705882352941176</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="C16">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D16">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1363,19 +1369,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K16">
-        <v>0.8936170212765957</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L16">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="M16">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1387,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1395,13 +1401,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4496124031007752</v>
+        <v>0.3733333333333334</v>
       </c>
       <c r="C17">
-        <v>232</v>
+        <v>28</v>
       </c>
       <c r="D17">
-        <v>232</v>
+        <v>28</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1413,19 +1419,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>284</v>
+        <v>47</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K17">
-        <v>0.8928571428571429</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L17">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M17">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1437,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1466,16 +1472,16 @@
         <v>39</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K18">
-        <v>0.890625</v>
+        <v>0.8828125</v>
       </c>
       <c r="L18">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M18">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1487,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1495,13 +1501,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2483221476510067</v>
+        <v>0.2818791946308725</v>
       </c>
       <c r="C19">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D19">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1513,19 +1519,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K19">
-        <v>0.8875</v>
+        <v>0.88125</v>
       </c>
       <c r="L19">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M19">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1537,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1545,7 +1551,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C20">
         <v>15</v>
@@ -1563,19 +1569,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K20">
-        <v>0.8867924528301887</v>
+        <v>0.8793103448275862</v>
       </c>
       <c r="L20">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="M20">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1587,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1595,13 +1601,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.1</v>
+        <v>0.1583333333333333</v>
       </c>
       <c r="C21">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="D21">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1613,19 +1619,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K21">
-        <v>0.8787878787878788</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L21">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="M21">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1637,21 +1643,45 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:17">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>0.07539682539682539</v>
+      </c>
+      <c r="C22">
+        <v>19</v>
+      </c>
+      <c r="D22">
+        <v>19</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>233</v>
+      </c>
       <c r="J22" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K22">
-        <v>0.8620689655172413</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L22">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="M22">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1663,12 +1693,12 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K23">
         <v>0.8611111111111112</v>
@@ -1694,16 +1724,16 @@
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K24">
-        <v>0.8414634146341463</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L24">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M24">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1715,21 +1745,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K25">
-        <v>0.84</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="L25">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="M25">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1741,21 +1771,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K26">
-        <v>0.8235294117647058</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L26">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M26">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1767,21 +1797,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K27">
-        <v>0.8214285714285714</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L27">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M27">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1798,16 +1828,16 @@
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K28">
-        <v>0.8205128205128205</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L28">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M28">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1819,21 +1849,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K29">
-        <v>0.7936507936507936</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L29">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="M29">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1845,21 +1875,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K30">
-        <v>0.7916666666666666</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L30">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="M30">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1871,21 +1901,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K31">
-        <v>0.7894736842105263</v>
+        <v>0.78</v>
       </c>
       <c r="L31">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="M31">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1897,21 +1927,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K32">
-        <v>0.7777777777777778</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L32">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M32">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1923,21 +1953,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K33">
-        <v>0.775</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L33">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M33">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1949,21 +1979,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K34">
-        <v>0.7714285714285715</v>
+        <v>0.7558823529411764</v>
       </c>
       <c r="L34">
-        <v>27</v>
+        <v>257</v>
       </c>
       <c r="M34">
-        <v>27</v>
+        <v>257</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1975,21 +2005,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>8</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K35">
-        <v>0.75</v>
+        <v>0.7447698744769874</v>
       </c>
       <c r="L35">
-        <v>21</v>
+        <v>178</v>
       </c>
       <c r="M35">
-        <v>21</v>
+        <v>178</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2001,21 +2031,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K36">
-        <v>0.75</v>
+        <v>0.7389830508474576</v>
       </c>
       <c r="L36">
-        <v>21</v>
+        <v>218</v>
       </c>
       <c r="M36">
-        <v>21</v>
+        <v>218</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2027,21 +2057,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>7</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K37">
-        <v>0.75</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L37">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M37">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2058,16 +2088,16 @@
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K38">
-        <v>0.7407407407407407</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L38">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M38">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2084,16 +2114,16 @@
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K39">
-        <v>0.7323529411764705</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L39">
-        <v>249</v>
+        <v>17</v>
       </c>
       <c r="M39">
-        <v>249</v>
+        <v>17</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2105,21 +2135,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>91</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K40">
-        <v>0.7322033898305085</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L40">
-        <v>216</v>
+        <v>19</v>
       </c>
       <c r="M40">
-        <v>216</v>
+        <v>19</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2131,21 +2161,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>79</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K41">
+        <v>0.7021276595744681</v>
+      </c>
+      <c r="L41">
         <v>66</v>
       </c>
-      <c r="K41">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="L41">
-        <v>16</v>
-      </c>
       <c r="M41">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2157,21 +2187,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K42">
-        <v>0.7071129707112971</v>
+        <v>0.675</v>
       </c>
       <c r="L42">
-        <v>169</v>
+        <v>27</v>
       </c>
       <c r="M42">
-        <v>169</v>
+        <v>27</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2183,21 +2213,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>70</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K43">
-        <v>0.6808510638297872</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L43">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="M43">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2209,21 +2239,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K44">
-        <v>0.6615384615384615</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L44">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="M44">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2235,21 +2265,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K45">
-        <v>0.6571428571428571</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L45">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="M45">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2261,21 +2291,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K46">
-        <v>0.6363636363636364</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="L46">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="M46">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2287,21 +2317,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K47">
-        <v>0.625</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L47">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="M47">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2313,21 +2343,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K48">
-        <v>0.6179775280898876</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L48">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M48">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2339,21 +2369,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K49">
-        <v>0.6086956521739131</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="L49">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="M49">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2365,21 +2395,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K50">
-        <v>0.5925925925925926</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="L50">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M50">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2391,21 +2421,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K51">
-        <v>0.5714285714285714</v>
+        <v>0.5617977528089888</v>
       </c>
       <c r="L51">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="M51">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2417,15 +2447,15 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K52">
-        <v>0.5652173913043478</v>
+        <v>0.5</v>
       </c>
       <c r="L52">
         <v>13</v>
@@ -2443,21 +2473,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K53">
-        <v>0.5384615384615384</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L53">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M53">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2469,21 +2499,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K54">
-        <v>0.5333333333333333</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L54">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M54">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2495,21 +2525,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K55">
-        <v>0.5098039215686274</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L55">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M55">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2521,21 +2551,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K56">
-        <v>0.4871794871794872</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="L56">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M56">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2547,21 +2577,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K57">
-        <v>0.3150684931506849</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="L57">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M57">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2573,21 +2603,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K58">
-        <v>0.265625</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="L58">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M58">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2599,33 +2629,59 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K59">
-        <v>0.2372881355932203</v>
+        <v>0.234375</v>
       </c>
       <c r="L59">
+        <v>15</v>
+      </c>
+      <c r="M59">
+        <v>15</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K60">
+        <v>0.01166666666666667</v>
+      </c>
+      <c r="L60">
         <v>14</v>
       </c>
-      <c r="M59">
+      <c r="M60">
         <v>14</v>
       </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>45</v>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>1186</v>
       </c>
     </row>
   </sheetData>
